--- a/medicine/Enfance/Raymond_Lebrun_(réalisateur)/Raymond_Lebrun_(réalisateur).xlsx
+++ b/medicine/Enfance/Raymond_Lebrun_(réalisateur)/Raymond_Lebrun_(réalisateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Lebrun, né le 12 janvier 1957 au Québec, est auteur, illustrateur, réalisateur, storyboard artist et scénariste. Il est le réalisateur principal de la série télévisée Toupie et Binou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir touché à la bande dessinée, il découvre le monde du dessin animé en 1981 sur la production Heavy Metal The Movie en effectuant la mise en couleur des décors. Par la suite, il collabore à diverses productions dans différents postes. Cela le conduit tout naturellement à la réalisation en 1995 sur la série préscolaire «Fennec très grand détective» produite conjointement avec la France.
-C’est en 2005 qu’il fait la connaissance de Dominique Jolin, auteure du duo: Toupie et Binou. Il se joint à elle et devient ainsi le réalisateur et co-scénariste de la célèbre série Toupie et Binou[1],[2] diffusée tant chez Treehouse (en anglais) qu’à Télé-Québec (en français).
-En 2013, Dominique Jolin et Raymond Lebrun créent deux nouvelles séries animées pour enfants soit: YaYa et Zouk[3],[4],[5] et Idées de Génie[6].
-De 2016 à 2023, Dominique Jolin et Raymond Lebrun écrivent et réalisent un long métrage d’animation Toupie et Binou le film[7], dont la date de sortie en salle est prévue pour l’année 2023.
+C’est en 2005 qu’il fait la connaissance de Dominique Jolin, auteure du duo: Toupie et Binou. Il se joint à elle et devient ainsi le réalisateur et co-scénariste de la célèbre série Toupie et Binou, diffusée tant chez Treehouse (en anglais) qu’à Télé-Québec (en français).
+En 2013, Dominique Jolin et Raymond Lebrun créent deux nouvelles séries animées pour enfants soit: YaYa et Zouk et Idées de Génie.
+De 2016 à 2023, Dominique Jolin et Raymond Lebrun écrivent et réalisent un long métrage d’animation Toupie et Binou le film, dont la date de sortie en salle est prévue pour l’année 2023.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Livres (Illustrations)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le roi Gédéon, texte de Pierrette Dubé, Raton Laveur, 1988
 Le roi Gédéon, texte de Pierrette Dubé, Bayard Jeunesse, 2008
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Livres (Texte et illustrations avec Dominique Jolin)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>YaYa et Zouk – Cherche et Trouve dans le monde de YaYa, La Bagnole, 2015
 YaYa et Zouk – Cherche et Trouve dans le monde de Zouk, La Bagnole, 2015
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Séries télé (concept et scénarisation)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Toupie et Binou, saison I - 104 X 5 minutes (Co-scénariste avec Dominique Jolin)
 Toupie et Binou, saison II - 6 X 22 minutes, 78 X 2 minutes (Co-scénariste avec Dominique Jolin)
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Séries télé (réalisation)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fennec, saison 1 – 26 X 11 minutes (réalisateur)
 Toupie et Binou, saison I - 104 X 5 minutes (Co-réalisateur avec Marcos Dasilva)
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Raymond_Lebrun_(r%C3%A9alisateur)</t>
+          <t>Raymond_Lebrun_(réalisateur)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Long métrage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Toupie et Binou le film - 80 minutes (Co-scénariste et co-réalisateur avec Dominique Jolin)</t>
         </is>
